--- a/tradept/Excel/Localization/Main/english/Y野怪发射器_MonsterEmitters_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/Y野怪发射器_MonsterEmitters_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CD8BB5-9391-4A53-A441-A696F6C17D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C662793C-14D5-470F-BDE6-DAD81B01CE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="129">
   <si>
     <t>发射器ID_LauncerID</t>
   </si>
@@ -318,103 +318,100 @@
     <t>听说有一些&lt;color=red&gt;蜘蛛&lt;/color&gt;在&lt;color=red&gt;{0}方向&lt;/color&gt;游荡，一旦有日蚀现象就会出现，可别被它们抓去了！</t>
   </si>
   <si>
-    <t>Hay una banda de élite de &lt;color=red&gt; Redstone Keep Rebels &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt; Los viajeros de ataque.</t>
-  </si>
-  <si>
-    <t>Hay una banda de élite de bandidos una vez leales al &lt;color=red&gt; Wildfire Clique &lt;/color&gt; que están atacando a los viajeros hacia el &lt;color=red&gt; {0} &lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Hay una banda de élite de &lt;color=red&gt; merodeadores &lt;/color&gt; atacando viajeros hacia los &lt;color=red&gt; {0} &lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Hay &lt;color=red&gt; garuda &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt; que aparecen cuando los vientos son bajos. ¡Tenga cuidado si te acercas demasiado!</t>
-  </si>
-  <si>
-    <t>Hay &lt;color=red&gt; bahar &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡Tome precaución adicional si deambulas cerca de ellos!</t>
-  </si>
-  <si>
-    <t>Hay &lt;color=red&gt; garuda &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡Tome precaución adicional si deambulas cerca de ellos!</t>
-  </si>
-  <si>
-    <t>Hay &lt;color=red&gt; Arboreans enojados &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡Parecen estar vengando a los viajeros que llevan mucha madera!</t>
-  </si>
-  <si>
-    <t>¡Hay &lt;color=red&gt; secaDad vengativo &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt; que atacará a cualquiera que llevara flores!</t>
-  </si>
-  <si>
-    <t>Hay un escuadrón de &lt;color=red&gt; gruñidos &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt; píldoras y pueblos saqueos. ¡Deshágase de ellos si les ocurre!</t>
-  </si>
-  <si>
-    <t>Hay un paquete de &lt;color=red&gt; jabalí wild &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt;, pero solo aparecen cuando no está lloviendo.</t>
-  </si>
-  <si>
-    <t>Hay &lt;color=red&gt; Spirits &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt; que atacan a los viajeros después del anochecer.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt; sahalia &lt;/color&gt; aparece durante las tormentas de arena hacia el &lt;color=red&gt; {0} &lt;/color&gt; durante el día.</t>
-  </si>
-  <si>
-    <t>Hay un &lt;color=red&gt; lolf den &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡Tome precauciones adicionales si se atreve a acercarse! Estos lobos solo aparecen en &lt;color=red&gt; Night &lt;/color&gt;, por lo que pasar a la luz del día debería ser seguro.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt; monstruos &lt;/color&gt; ha aparecido hacia el &lt;color=red&gt; {0} &lt;/color&gt;! Supuestamente bebieron una poción extraña que les dio un viajero en el pueblo brumoso. Es una pena que sobrevivieran a la batalla del sol negro solo para sufrir ese destino.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt; Dryads y Arboreans &lt;/color&gt; se dedican a una guerra interminable en las montañas de Karakorum hacia el &lt;color=red&gt; {0} &lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Los bandidos del &lt;color=red&gt; desierto de la hermandad &lt;/color&gt; han aparecido hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡Esté atento a su bolso de monedas!</t>
-  </si>
-  <si>
-    <t>Los guerreros de &lt;color=red&gt; Wildfire Clique &lt;/color&gt; están patrullando en &lt;color=red&gt; {0} &lt;/color&gt;. ¡Evítelos si no quieres problemas!</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt; gueras alpinas &lt;/color&gt; son viajeros emboscados hacia el &lt;color=red&gt; {0} &lt;/color&gt;! Supuestamente luchan por la libertad, ¡pero todo lo que realmente quieren es Utar!</t>
-  </si>
-  <si>
-    <t>Los fanáticos de &lt;color=red&gt; La iglesia de Radiance &lt;/color&gt; están predicando hacia &lt;color=red&gt; {0} &lt;/color&gt;. ¡Estos lunáticos son peores que los Ifrit!</t>
-  </si>
-  <si>
-    <t>A &lt;color=red&gt; Grunt Corps &lt;/color&gt; está atacando a los viajeros hacia el &lt;color=red&gt; {0} &lt;/color&gt; sin remordimiento. ¡Han afectado esta tierra desde que el sol negro salió en el cielo!</t>
-  </si>
-  <si>
-    <t>Una banda de &lt;color=red&gt; ifrit &lt;/color&gt; está deambulando hacia el &lt;color=red&gt; {0} &lt;/color&gt;. Las tribus pueden no tener la fuerza para pararse contra ellos ... ¡que la diosa del río nos bendiga a todos!</t>
-  </si>
-  <si>
-    <t>Hay &lt;color=red&gt; Salteadores &lt;/color&gt; bloqueando el camino hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡Ten cuidado!</t>
-  </si>
-  <si>
-    <t>Hay &lt;color=red&gt; Centauros &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡Proceda con precaución!</t>
-  </si>
-  <si>
-    <t>Hay &lt;color=red&gt; bahars &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡Proceda con precaución!</t>
-  </si>
-  <si>
-    <t>Hay unos &lt;color=red&gt; Lobos Articos &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡Ten cuidado si deambulas demasiado cerca! Solo parecen salir en &lt;color=red&gt; noche &lt;/color&gt;, por lo que debe estar seguro si pasa durante el día.</t>
-  </si>
-  <si>
-    <t>Hay un &lt;color=red&gt; Lobos &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡No te acerques demasiado! Solo parecen salir en &lt;color=red&gt; noche &lt;/color&gt;, por lo que debe estar seguro si pasa durante el día.</t>
-  </si>
-  <si>
-    <t>Hay &lt;color=red&gt; Lobos &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡No te acerques demasiado! Solo parecen salir en &lt;color=red&gt; noche &lt;/color&gt;, por lo que debe estar seguro si pasa durante el día.</t>
-  </si>
-  <si>
-    <t>Hay &lt;color=red&gt; Garudas &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡Proceda con precaución!</t>
-  </si>
-  <si>
-    <t>Hay &lt;color=red&gt; Centauros &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡Ten cuidado!</t>
-  </si>
-  <si>
-    <t>Hay &lt;color=red&gt; Centaures &lt;/color&gt; hacia el &lt;color=red&gt; {0} &lt;/color&gt;. ¡Ten cuidado!</t>
-  </si>
-  <si>
-    <t>Un &lt;color=red&gt; Batallón Ifrit &lt;/color&gt; está deambulando hacia el &lt;color=red&gt; {0} &lt;/color&gt;. Las tribus pueden no tener la fuerza para pararse contra ellos ... ¡que la diosa del río nos bendiga a todos!</t>
-  </si>
-  <si>
-    <t>Un &lt;color=red&gt; Batallón Ifrit &lt;/color&gt; deambula hacia el &lt;color=red&gt; {0} &lt;/color&gt;. Parece que acaban de aparecer. ¡Espantoso!</t>
-  </si>
-  <si>
-    <t>Cuentan de &lt;color=red&gt; Spiders &lt;/color&gt; deambulando hacia &lt;color=red&gt; the {0} &lt;/color&gt; durante los soles negros extendidos entre las personas. ¡No se deje atrapar por sus redes!</t>
+    <t>Há &lt;color=red&gt; Highwaymen &lt;/color&gt; bloqueando o caminho para o &lt;color=red&gt; {0} &lt;/color&gt;. Tenha cuidado!</t>
+  </si>
+  <si>
+    <t>Existem alguns &lt;color=red&gt; Lobos Árticos &lt;/color&gt; perto de &lt;color=red&gt; {0} &lt;/color&gt;. Tenha cuidado se você chegar muito perto! Eles só parecem sair à &lt;color=red&gt; noite &lt;/color&gt;, então esteja seguro se passar por lá durante o dia.</t>
+  </si>
+  <si>
+    <t>Existem &lt;color=red&gt; Centauros &lt;/color&gt; em direção ao &lt;color=red&gt; {0} &lt;/color&gt;. Prossiga com cuidado!</t>
+  </si>
+  <si>
+    <t>Existem &lt;color=red&gt; Garudas &lt;/color&gt; em direção ao &lt;color=red&gt; {0} &lt;/color&gt;. Prossiga com cuidado!</t>
+  </si>
+  <si>
+    <t>Existem &lt;color=red&gt; bahars &lt;/color&gt; em direção ao &lt;color=red&gt; {0} &lt;/color&gt;. Prossiga com cuidado!</t>
+  </si>
+  <si>
+    <t>Há um grupo de elite de &lt;color=red&gt; Redstone Keep Rebels &lt;/color&gt; em direção aos &lt;color=red&gt; {0} &lt;/color&gt; Attack Travellers.</t>
+  </si>
+  <si>
+    <t>Há um bando de bandidos de elite que já foi leal à &lt;color=red&gt; Wildfire Clique &lt;/color&gt; e que está atacando os viajantes do &lt;color=red&gt; {0} &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Há um bando de elite de &lt;color=red&gt; saqueadores &lt;/color&gt; atacando viajantes em direção ao &lt;color=red&gt; {0} &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Há &lt;color=red&gt; Lobos &lt;/color&gt; em direção ao &lt;color=red&gt; {0} &lt;/color&gt;. Não chegue muito perto! Eles só parecem sair à &lt;color=red&gt; noite &lt;/color&gt;, então esteja seguro se passar por lá durante o dia.</t>
+  </si>
+  <si>
+    <t>Existem &lt;color=red&gt; garuda &lt;/color&gt; em direção ao &lt;color=red&gt; {0} &lt;/color&gt; que aparecem quando os ventos estão fracos. Tenha cuidado se você chegar muito perto!</t>
+  </si>
+  <si>
+    <t>Existem &lt;color=red&gt; Centauros &lt;/color&gt; em direção ao &lt;color=red&gt; {0} &lt;/color&gt;. Tenha cuidado!</t>
+  </si>
+  <si>
+    <t>Há &lt;color=red&gt; bahar &lt;/color&gt; em direção ao &lt;color=red&gt; {0} &lt;/color&gt;. Tome cuidado extra se você passear perto deles!</t>
+  </si>
+  <si>
+    <t>Existem &lt;color=red&gt; Lobos &lt;/color&gt; em direção ao &lt;color=red&gt; {0} &lt;/color&gt;. Não chegue muito perto! Eles só parecem sair à &lt;color=red&gt; noite &lt;/color&gt;, então esteja seguro se passar por lá durante o dia.</t>
+  </si>
+  <si>
+    <t>Há &lt;color=red&gt; garuda &lt;/color&gt; em direção ao &lt;color=red&gt; {0} &lt;/color&gt;. Tome cuidado extra se você passear perto deles!</t>
+  </si>
+  <si>
+    <t>Há &lt;color=red&gt; Arbóreos &lt;/color&gt; furiosos em relação ao &lt;color=red&gt; {0} &lt;/color&gt;. Eles parecem estar vingando os viajantes que carregam muita madeira!</t>
+  </si>
+  <si>
+    <t>Há um &lt;color=red&gt; dryDad vingativo &lt;/color&gt; em direção a &lt;color=red&gt; {0} &lt;/color&gt; que atacará qualquer um que carregue flores!</t>
+  </si>
+  <si>
+    <t>Há um esquadrão de &lt;color=red&gt; grunhidos &lt;/color&gt; em direção às pílulas &lt;color=red&gt; {0} &lt;/color&gt; e saqueando cidades. Livre-se deles se isso acontecer com você!</t>
+  </si>
+  <si>
+    <t>Há uma matilha de &lt;color=red&gt; javalis &lt;/color&gt; em direção ao &lt;color=red&gt; {0} &lt;/color&gt;, mas eles só aparecem quando não está chovendo.</t>
+  </si>
+  <si>
+    <t>Existem &lt;color=red&gt; Espíritos &lt;/color&gt; perto de &lt;color=red&gt; {0} &lt;/color&gt; que atacam os viajantes após o anoitecer.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt; sahalia &lt;/color&gt; aparece durante tempestades de areia em direção a &lt;color=red&gt; {0} &lt;/color&gt; durante o dia.</t>
+  </si>
+  <si>
+    <t>Há um &lt;color=red&gt; lolf den &lt;/color&gt; em direção ao &lt;color=red&gt; {0} &lt;/color&gt;. Tome precauções extras se você se atrever a se aproximar! Esses lobos só aparecem durante a &lt;color=red&gt; Noite &lt;/color&gt;, então ir para a luz do dia deve ser seguro.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt; monstros &lt;/color&gt; apareceram em direção ao &lt;color=red&gt; {0} &lt;/color&gt;! Eles supostamente beberam uma poção estranha dada a eles por um viajante na cidade enevoada. É uma pena que eles tenham sobrevivido à Batalha do Sol Negro apenas para sofrer tal destino.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt; Dríades e Arbóreos &lt;/color&gt; travam uma guerra sem fim nas montanhas Karakorum em direção ao &lt;color=red&gt; {0} &lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Os bandidos do &lt;color=red&gt; Deserto da Irmandade &lt;/color&gt; apareceram em direção ao &lt;color=red&gt; {0} &lt;/color&gt;. Fique de olho na sua bolsa de moedas!</t>
+  </si>
+  <si>
+    <t>Guerreiros da &lt;color=red&gt; Wildfire Clique &lt;/color&gt; estão patrulhando em &lt;color=red&gt; {0} &lt;/color&gt;. Evite-os se não quiser problemas!</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt; guerras alpinas &lt;/color&gt; são viajantes emboscados em direção ao &lt;color=red&gt; {0} &lt;/color&gt;! Eles supostamente estão lutando pela liberdade, mas tudo o que realmente querem é Utar!</t>
+  </si>
+  <si>
+    <t>Os fãs da &lt;color=red&gt; Igreja da Resplendor &lt;/color&gt; estão pregando para &lt;color=red&gt; {0} &lt;/color&gt;. Esses lunáticos são piores que o Ifrit!</t>
+  </si>
+  <si>
+    <t>Um &lt;color=red&gt; Grunt Corps &lt;/color&gt; está atacando viajantes para o &lt;color=red&gt; {0} &lt;/color&gt; sem remorso. Eles afetaram esta terra desde que o sol negro nasceu no céu!</t>
+  </si>
+  <si>
+    <t>Uma faixa de &lt;color=red&gt; ifrit &lt;/color&gt; está vagando em direção ao &lt;color=red&gt; {0} &lt;/color&gt;. As tribos podem não ter forças para enfrentá-los... que a deusa do rio abençoe a todos nós!</t>
+  </si>
+  <si>
+    <t>Um &lt;color=red&gt; Batalhão Ifrit &lt;/color&gt; está caminhando em direção ao &lt;color=red&gt; {0} &lt;/color&gt;. As tribos podem não ter forças para enfrentá-los... que a deusa do rio abençoe a todos nós!</t>
+  </si>
+  <si>
+    <t>Um &lt;color=red&gt; Batalhão Ifrit &lt;/color&gt; caminha em direção ao &lt;color=red&gt; {0} &lt;/color&gt;. Parece que eles acabaram de aparecer. Assustador!</t>
+  </si>
+  <si>
+    <t>Eles falam de &lt;color=red&gt; Aranhas &lt;/color&gt; vagando em direção ao &lt;color=red&gt; {0} &lt;/color&gt; durante os sóis negros espalhados entre as pessoas. Não seja pego em suas redes!</t>
   </si>
 </sst>
 </file>
@@ -506,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,11 +744,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="25" width="8.7109375" customWidth="1"/>
   </cols>
@@ -775,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="213.75" x14ac:dyDescent="0.25">
@@ -786,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
@@ -797,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
@@ -808,7 +805,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
@@ -819,7 +816,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -830,7 +827,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -841,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
@@ -852,7 +849,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
@@ -863,7 +860,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -874,7 +871,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
@@ -885,7 +882,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
@@ -896,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
@@ -907,7 +904,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
@@ -918,7 +915,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
@@ -929,7 +926,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
@@ -940,7 +937,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
@@ -951,7 +948,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
@@ -962,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -973,7 +970,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -984,7 +981,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1006,7 +1003,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1017,7 +1014,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1028,7 +1025,7 @@
         <v>45</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1039,7 +1036,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1050,7 +1047,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,7 +1058,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,7 +1069,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1083,7 +1080,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1094,7 +1091,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1105,7 +1102,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1116,7 +1113,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1127,7 +1124,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1138,7 +1135,7 @@
         <v>54</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1149,7 +1146,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1160,7 +1157,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,7 +1168,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,7 +1179,7 @@
         <v>64</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1193,7 +1190,7 @@
         <v>64</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1204,7 +1201,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1215,7 +1212,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1226,7 +1223,7 @@
         <v>68</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,7 +1234,7 @@
         <v>68</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1248,7 +1245,7 @@
         <v>72</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1270,7 +1267,7 @@
         <v>72</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1281,7 +1278,7 @@
         <v>72</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1346,7 +1343,7 @@
         <v>86</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1357,7 +1354,7 @@
         <v>88</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,7 +1365,7 @@
         <v>88</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1379,7 +1376,7 @@
         <v>91</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1390,7 +1387,7 @@
         <v>93</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1401,7 +1398,7 @@
         <v>93</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1412,7 +1409,7 @@
         <v>96</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
